--- a/apps/reports/excell/nats_project_template_all_branches.xlsx
+++ b/apps/reports/excell/nats_project_template_all_branches.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Django\erp\apps\reports\excell\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ERP\apps\reports\excell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{738C9E7C-15AC-4F65-A7EE-0762A53ECED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53CC0F59-EB8F-4578-BEA9-313CC2A4AA3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="144" xr2:uid="{1A5ED131-B6D4-483B-B026-1D48F67FB611}"/>
   </bookViews>
@@ -1030,130 +1030,125 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="66" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="66" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="66" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="66" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="66" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="66" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="66" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="66" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="18" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="18" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="18" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="32" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="284">
     <cellStyle name="Excel Built-in Normal" xfId="1" xr:uid="{CCD57AC0-9197-4AC0-B98D-D950FD824020}"/>
@@ -1896,8 +1891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5F3C53B-C19E-47CF-A15E-E992CE3CB9EE}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -1918,340 +1913,340 @@
     <col min="15" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18" customHeight="1">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:11" ht="18">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-    </row>
-    <row r="2" spans="1:11" ht="9.75" customHeight="1">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="4"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+    </row>
+    <row r="2" spans="1:11" ht="18">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:11" ht="18">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="25" t="s">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="25"/>
-      <c r="I3" s="29" t="s">
+      <c r="H3" s="32"/>
+      <c r="I3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="29"/>
-    </row>
-    <row r="4" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A4" s="30" t="s">
+      <c r="J3" s="26"/>
+    </row>
+    <row r="4" spans="1:11" ht="18.75">
+      <c r="A4" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-    </row>
-    <row r="5" spans="1:11" ht="73.150000000000006" customHeight="1">
-      <c r="A5" s="31" t="s">
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.75">
+      <c r="A5" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="26" t="s">
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24" t="s">
+      <c r="G5" s="30"/>
+      <c r="H5" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="24" t="s">
+      <c r="I5" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="24"/>
-      <c r="K5" s="26" t="s">
+      <c r="J5" s="30"/>
+      <c r="K5" s="22" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="132" customHeight="1">
-      <c r="A6" s="32"/>
-      <c r="B6" s="9" t="s">
+    <row r="6" spans="1:11" ht="117.75">
+      <c r="A6" s="29"/>
+      <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="23"/>
       <c r="F6" s="23"/>
       <c r="G6" s="23"/>
       <c r="H6" s="23"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="12"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="11"/>
       <c r="K6" s="23"/>
     </row>
-    <row r="7" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A7" s="19"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-    </row>
-    <row r="8" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A8" s="19"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-    </row>
-    <row r="9" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A9" s="19"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-    </row>
-    <row r="10" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A10" s="19"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-    </row>
-    <row r="11" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A11" s="19"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-    </row>
-    <row r="12" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A12" s="19"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-    </row>
-    <row r="13" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A13" s="19"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-    </row>
-    <row r="14" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A14" s="19"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-    </row>
-    <row r="15" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A15" s="19"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-    </row>
-    <row r="16" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A16" s="19"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-    </row>
-    <row r="17" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A17" s="19"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-    </row>
-    <row r="18" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A18" s="19"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-    </row>
-    <row r="19" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A19" s="19"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-    </row>
-    <row r="20" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A20" s="19"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-    </row>
-    <row r="21" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A21" s="19"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-    </row>
-    <row r="22" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A22" s="19"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-    </row>
-    <row r="23" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A23" s="19"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-    </row>
-    <row r="24" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A24" s="44" t="s">
+    <row r="7" spans="1:11" ht="15.75">
+      <c r="A7" s="18"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.75">
+      <c r="A8" s="18"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.75">
+      <c r="A9" s="18"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+    </row>
+    <row r="10" spans="1:11" ht="15.75">
+      <c r="A10" s="18"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+    </row>
+    <row r="11" spans="1:11" ht="15.75">
+      <c r="A11" s="18"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+    </row>
+    <row r="12" spans="1:11" ht="15.75">
+      <c r="A12" s="18"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+    </row>
+    <row r="13" spans="1:11" ht="15.75">
+      <c r="A13" s="18"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+    </row>
+    <row r="14" spans="1:11" ht="15.75">
+      <c r="A14" s="18"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+    </row>
+    <row r="15" spans="1:11" ht="15.75">
+      <c r="A15" s="18"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+    </row>
+    <row r="16" spans="1:11" ht="15.75">
+      <c r="A16" s="18"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+    </row>
+    <row r="17" spans="1:11" ht="15.75">
+      <c r="A17" s="18"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+    </row>
+    <row r="18" spans="1:11" ht="15.75">
+      <c r="A18" s="18"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+    </row>
+    <row r="19" spans="1:11" ht="15.75">
+      <c r="A19" s="18"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+    </row>
+    <row r="20" spans="1:11" ht="15.75">
+      <c r="A20" s="18"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+    </row>
+    <row r="21" spans="1:11" ht="15.75">
+      <c r="A21" s="18"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+    </row>
+    <row r="22" spans="1:11" ht="15.75">
+      <c r="A22" s="18"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+    </row>
+    <row r="23" spans="1:11" ht="15.75">
+      <c r="A23" s="18"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+    </row>
+    <row r="24" spans="1:11" ht="15.75">
+      <c r="A24" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="43"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="43"/>
-      <c r="K24" s="43"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -2271,7 +2266,7 @@
     <mergeCell ref="I5:J5"/>
   </mergeCells>
   <pageMargins left="0.11805555555555555" right="0" top="0.15763888888888888" bottom="0.15763888888888888" header="0.15763888888888888" footer="0.15763888888888888"/>
-  <pageSetup paperSize="77" scale="70" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="77" scale="46" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -2283,27 +2278,24 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.7109375" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="16384" width="9.7109375" style="2"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="12.75" customHeight="1">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
       <c r="O1" s="1">
         <v>2025</v>
       </c>
@@ -2330,21 +2322,21 @@
       <c r="AJ1" s="1"/>
     </row>
     <row r="2" spans="1:36" ht="18">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="4"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="3"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
@@ -2370,65 +2362,65 @@
       <c r="AJ2" s="1"/>
     </row>
     <row r="3" spans="1:36" ht="18">
-      <c r="A3" s="40"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5"/>
-      <c r="AA3" s="5"/>
-      <c r="AB3" s="5"/>
-      <c r="AC3" s="5"/>
-      <c r="AD3" s="5"/>
-      <c r="AE3" s="5"/>
-      <c r="AF3" s="5"/>
-      <c r="AG3" s="5"/>
-      <c r="AH3" s="5"/>
-      <c r="AI3" s="5"/>
-      <c r="AJ3" s="5"/>
+      <c r="A3" s="41"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="4"/>
+      <c r="AB3" s="4"/>
+      <c r="AC3" s="4"/>
+      <c r="AD3" s="4"/>
+      <c r="AE3" s="4"/>
+      <c r="AF3" s="4"/>
+      <c r="AG3" s="4"/>
+      <c r="AH3" s="4"/>
+      <c r="AI3" s="4"/>
+      <c r="AJ3" s="4"/>
     </row>
     <row r="4" spans="1:36" ht="12.75" customHeight="1">
       <c r="A4" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="42" t="s">
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
       <c r="P4" s="34" t="s">
         <v>16</v>
       </c>
@@ -2540,118 +2532,118 @@
       <c r="B6" s="37"/>
       <c r="C6" s="37"/>
       <c r="D6" s="37"/>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="7" t="s">
         <v>26</v>
       </c>
       <c r="I6" s="33"/>
       <c r="J6" s="33"/>
       <c r="K6" s="33"/>
-      <c r="L6" s="8" t="s">
+      <c r="L6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="M6" s="8" t="s">
+      <c r="M6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="N6" s="8" t="s">
+      <c r="N6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="O6" s="8" t="s">
+      <c r="O6" s="7" t="s">
         <v>26</v>
       </c>
       <c r="P6" s="33"/>
       <c r="Q6" s="33"/>
       <c r="R6" s="33"/>
-      <c r="S6" s="8" t="s">
+      <c r="S6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="T6" s="8" t="s">
+      <c r="T6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="U6" s="8" t="s">
+      <c r="U6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="V6" s="8" t="s">
+      <c r="V6" s="7" t="s">
         <v>26</v>
       </c>
       <c r="W6" s="33"/>
       <c r="X6" s="33"/>
       <c r="Y6" s="33"/>
-      <c r="Z6" s="8" t="s">
+      <c r="Z6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="AA6" s="8" t="s">
+      <c r="AA6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="AB6" s="8" t="s">
+      <c r="AB6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="AC6" s="8" t="s">
+      <c r="AC6" s="7" t="s">
         <v>26</v>
       </c>
       <c r="AD6" s="33"/>
       <c r="AE6" s="33"/>
       <c r="AF6" s="33"/>
-      <c r="AG6" s="8" t="s">
+      <c r="AG6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="AH6" s="8" t="s">
+      <c r="AH6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="AI6" s="8" t="s">
+      <c r="AI6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="AJ6" s="8" t="s">
+      <c r="AJ6" s="7" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:36" ht="38.25">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="17"/>
-      <c r="U7" s="17"/>
-      <c r="V7" s="17"/>
-      <c r="W7" s="17"/>
-      <c r="X7" s="17"/>
-      <c r="Y7" s="17"/>
-      <c r="Z7" s="17"/>
-      <c r="AA7" s="17"/>
-      <c r="AB7" s="17"/>
-      <c r="AC7" s="18"/>
-      <c r="AD7" s="18"/>
-      <c r="AE7" s="18"/>
-      <c r="AF7" s="18"/>
-      <c r="AG7" s="18"/>
-      <c r="AH7" s="18"/>
-      <c r="AI7" s="18"/>
-      <c r="AJ7" s="18"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="16"/>
+      <c r="V7" s="16"/>
+      <c r="W7" s="16"/>
+      <c r="X7" s="16"/>
+      <c r="Y7" s="16"/>
+      <c r="Z7" s="16"/>
+      <c r="AA7" s="16"/>
+      <c r="AB7" s="16"/>
+      <c r="AC7" s="17"/>
+      <c r="AD7" s="17"/>
+      <c r="AE7" s="17"/>
+      <c r="AF7" s="17"/>
+      <c r="AG7" s="17"/>
+      <c r="AH7" s="17"/>
+      <c r="AI7" s="17"/>
+      <c r="AJ7" s="17"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -2681,12 +2673,12 @@
     <mergeCell ref="R5:R6"/>
     <mergeCell ref="S5:V5"/>
     <mergeCell ref="W5:W6"/>
+    <mergeCell ref="AF5:AF6"/>
     <mergeCell ref="X5:X6"/>
     <mergeCell ref="Y5:Y6"/>
     <mergeCell ref="Z5:AC5"/>
     <mergeCell ref="AD5:AD6"/>
     <mergeCell ref="AE5:AE6"/>
-    <mergeCell ref="AF5:AF6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.3" bottom="0.3" header="0.3" footer="0.3"/>
   <pageSetup paperSize="77" scale="37" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
